--- a/app/src/main/assets/dataset_pengujian_backup.xlsx
+++ b/app/src/main/assets/dataset_pengujian_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\Eksperimen\RAGHaji\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44C4F75-D3E4-4018-BD3B-7612D4B7EA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C47CA2D-5F3B-4807-8067-3B93267AEF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B5EA1384-9E01-4D5E-8CF1-1E30AA41160B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>query</t>
   </si>
@@ -44,27 +44,82 @@
     <t>correct_answer</t>
   </si>
   <si>
-    <t>Setiap jemaah haji tentu ingin meraih haji mabrur, namun masih banyak jemaah yang belum memahami kriteriakriterianya, apa saja kriteria haji mabrur?</t>
-  </si>
-  <si>
-    <t>Beberapa kriteria untuk meraih haji mabrur yang Harus ditempuh oleh jemaah haji antara lain:
-a. Pelaksanaan ibadah haji harus didasari dengan niat yang ikhlas semata-mata karena Allah.
-b. Biaya dan bekal untuk menunaikan haji harus berasal dari harta halālan tayyiban.
-c. Pelaksanaan ibadah haji sesuai dengan tuntunan manasik yang benar (rukun, wajib, dan sunat).
-d. Menghindari seluruh larangan ihram dan perbuatan maksiat yang dapat mengurangi pahala hajinya.
-e. Memperbanyak dzikir, istighfar dan amal saleh.</t>
-  </si>
-  <si>
-    <t>Apa saja ciri-ciri haji mabrur?</t>
-  </si>
-  <si>
-    <t>Mabrur atau tidaknya jemaah haji memang tidak dapat dilihat dan yang tahu hanyalah Allah SWT. Namun seseorang yang dapat meraih haji mabrur itu memiliki ciri-ciri tersendiri. Ciri-ciri orang yang meraih haji mabrur di antaranya:
-a. Santun dalam bertutur kata.
-b. Menyebarkan kedamaian.
-c. Memiliki kepedulian sosial.
-d. Berperilaku (amal perbuatan) lebih baik dibanding dengan sebelum menunaikan ibadah haji.
-e. Bertambah zuhud terhadap kehidupan dunia dan lebih mengutamakan akhirat.
-f. Senantiasa berserah diri kepada Allah dengan menerapkan sikap sabar, syukur , tawakkal dan ridha.</t>
+    <t>Apa yang dimaksud dengan ihram?</t>
+  </si>
+  <si>
+    <t>Ihram adalah niat masuk (mengerjakan) dalam ibadah haji dan umrah dengan menghindari hal-hal yang dilarang selama berihram.</t>
+  </si>
+  <si>
+    <t>Bagaimana bentuk pakaian ihram bagi laki-laki dan perempuan?</t>
+  </si>
+  <si>
+    <t>Pakaian ihram bagi laki-laki adalah dua helai kain yang tidak berjahit; satu helai dipakai sebagai sarung dan satu helai sebagai selendang (disandangkan di bahu). Pakaian ihram tersebut bagi laki-laki disunatkan berwarna putih, sedangkan bagi perempuan adalah pakaian biasa yang menutup seluruh badan, tetapi harus terbuka bagian muka dan kedua telapak tangannya.</t>
+  </si>
+  <si>
+    <t>Apa boleh dalam keadaan ihram menyembelih hewan ternak untuk keperluan makan?</t>
+  </si>
+  <si>
+    <t>Boleh, karena yang dilarang adalah berburu dan membunuh binatang buruan darat yang halal serta binatang lain yang tidak membahayakan.</t>
+  </si>
+  <si>
+    <t>Apa saja yang dilarang selama dalam keadaan ihram?</t>
+  </si>
+  <si>
+    <t>Bagi laki-laki dilarang:
+1. Memakai pakaian biasa.
+2. Memakai kaos kaki atau sepatu yang menutupi mata kaki dan tumit.
+3. Menutup kepala yang melekat seperti: topi atau peci dan sorban.
+Bagi perempuan dilarang:
+1. Menutup kedua telapak tangan dengan kaos tangan.
+2. Menutup muka dengan cadar.
+Larangan selama ihram bagi laki-laki dan perempuan adalah:
+1. Memakai wangi-wangian kecuali yang sudah dipakai di badan sebelum niat haji/umrah.
+2. Memotong kuku dan mencukur atau mencabut rambut dan bulu badan.
+3. Memburu dan menganiaya/ membunuh binatang dengan cara apapun, kecuali binatang yang membahayakan boleh dibunuh.
+4. Menikah, menikahkan atau meminang perempuan untuk dinikahi.
+5. Bercumbu atau bersetubuh.
+6. Mencaci, bertengkar atau mengucapkan katakata kotor.</t>
+  </si>
+  <si>
+    <t>Apa saja ibadah yang boleh dilakukan oleh perempuan selama haid dalam ibadah haji?</t>
+  </si>
+  <si>
+    <t>Semua ibadah boleh dilakukan, kecuali salat dan tawaf.</t>
+  </si>
+  <si>
+    <t>Apakah jemaah haji laki-laki atau perempuan yang sedang berihram boleh melepaskan pakaian ihramnya?</t>
+  </si>
+  <si>
+    <t>Boleh, melepas pakaian ihramnya di tempat tertutup, seperti ketika berhajat di kamar mandi atau menggantikannya karena kotor. Apabila membuka pakaian ihram di tempat terbuka hukumnya haram, tetapi tidak kena dam.</t>
+  </si>
+  <si>
+    <t>Apakah boleh berihram haji/umrah sebelum sampai mīqāt?</t>
+  </si>
+  <si>
+    <t>Boleh berihram haji/umrah sebelum sampai mīqāt. Menurut Abu Hanifah hukumya lebih utama.</t>
+  </si>
+  <si>
+    <t>Apa hukumnya membuka kain ihram jemaah haji sakit karena alasan perawatan?</t>
+  </si>
+  <si>
+    <t>Boleh karena darurat. Pada saat sudah memungkinkan, wajib mengenakan kembali kain ihramnya tanpa dam dan tidak perlu niat (ihram) lagi. Apabila tidak memungkinkan memakai kain ihram, boleh melaksanakan hajinya tanpa kain ihram, akan tetapi dikenakan dam.</t>
+  </si>
+  <si>
+    <t>Apa hukumnya memotong/mencukur/ mencukur rambut, memotong kuku, atau memakai wangi-wangian dalam keadaan ihram?</t>
+  </si>
+  <si>
+    <t>Hukumnya dilarang, memotong/mencukur/mencabut rambut. Memotong kuku atau memakai wangiwangian dalam keadaan ihram wajib membayar fidyah (denda), dengan memilih salah satu diantara tiga, yaitu menyembelih seekor kambing atau bersedekah kepada 6 (enam) orang fakir miskin masing-masing 1/2 sa’ (2 mud = 1 1/2 kg) beras makanan pokok atau berpuasa tiga hari.</t>
+  </si>
+  <si>
+    <t>Ada berapa macam tawaf itu?</t>
+  </si>
+  <si>
+    <t>Tawaf ada 5 (lima) macam, yaitu:
+a. Tawaf qudum
+b. Tawaf rukun (ifadah dan umrah)
+c. Tawaf sunat
+d. Tawaf wada’
+e. Tawaf nadzar</t>
   </si>
 </sst>
 </file>
@@ -86,7 +141,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,7 +156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,10 +194,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -473,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6615E550-A005-43DE-80DA-ADF16A76CB83}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="138" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -501,12 +568,76 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="163" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="263" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="38" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="63" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="88" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
